--- a/data/total/2610年.xlsx
+++ b/data/total/2610年.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEJ Pro\TejPro\DataExport\#1230\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\#tmp\python-\python-webstorm-TEJ-Banking-and-Finance\data\total\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4CCC1D-CB3F-4584-8EDD-3B7F89AED0CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD99D534-1B40-40B0-89AD-C6117FC5B0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>最低價(元)</t>
   </si>
   <si>
-    <t>收盤價(元)</t>
-  </si>
-  <si>
     <t>成交量(百萬股)_年</t>
   </si>
   <si>
@@ -299,6 +296,10 @@
   </si>
   <si>
     <t>2003/12/31</t>
+  </si>
+  <si>
+    <t>收盤價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -308,7 +309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,###"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +329,13 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -350,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -360,6 +368,9 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -648,35 +659,35 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.375" customWidth="1"/>
-    <col min="8" max="9" width="13.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="13" width="15" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" customWidth="1"/>
-    <col min="18" max="18" width="12.25" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.875" customWidth="1"/>
-    <col min="21" max="22" width="16.375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.875" customWidth="1"/>
-    <col min="24" max="24" width="12.75" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.375" customWidth="1"/>
-    <col min="28" max="28" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" customWidth="1"/>
+    <col min="21" max="22" width="16.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,82 +700,82 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="B2" s="3">
         <v>27.65</v>
@@ -821,7 +832,7 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U2" s="3">
         <v>1.64</v>
@@ -830,7 +841,7 @@
         <v>0.72</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X2" s="3">
         <v>4.38</v>
@@ -842,15 +853,15 @@
         <v>58.620699999999999</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="B3" s="3">
         <v>12.05</v>
@@ -907,7 +918,7 @@
         <v>31.3</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3" s="3">
         <v>2.58</v>
@@ -916,7 +927,7 @@
         <v>1.34</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X3" s="3">
         <v>0</v>
@@ -928,15 +939,15 @@
         <v>175.76759999999999</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B4" s="3">
         <v>9.06</v>
@@ -987,13 +998,13 @@
         <v>1805</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U4" s="3">
         <v>1.18</v>
@@ -1002,7 +1013,7 @@
         <v>0.51</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X4" s="3">
         <v>0</v>
@@ -1014,15 +1025,15 @@
         <v>84.437100000000001</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="B5" s="3">
         <v>11</v>
@@ -1079,7 +1090,7 @@
         <v>302.33999999999997</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U5" s="3">
         <v>0.87</v>
@@ -1088,7 +1099,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X5" s="3">
         <v>2.31</v>
@@ -1100,15 +1111,15 @@
         <v>20.454499999999999</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="B6" s="3">
         <v>11.65</v>
@@ -1165,7 +1176,7 @@
         <v>16.68</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U6" s="3">
         <v>1.04</v>
@@ -1174,7 +1185,7 @@
         <v>0.36</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X6" s="3">
         <v>2</v>
@@ -1186,15 +1197,15 @@
         <v>33.733899999999998</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="B7" s="3">
         <v>9.2899999999999991</v>
@@ -1245,13 +1256,13 @@
         <v>809</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S7" s="3">
         <v>15.87</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U7" s="3">
         <v>1.1299999999999999</v>
@@ -1260,7 +1271,7 @@
         <v>0.42</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X7" s="3">
         <v>0</v>
@@ -1272,15 +1283,15 @@
         <v>47.096800000000002</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="B8" s="3">
         <v>12</v>
@@ -1337,7 +1348,7 @@
         <v>15.04</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U8" s="3">
         <v>0.89</v>
@@ -1346,7 +1357,7 @@
         <v>0.36</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X8" s="3">
         <v>4.93</v>
@@ -1358,15 +1369,15 @@
         <v>24.833300000000001</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="B9" s="3">
         <v>14.8</v>
@@ -1423,7 +1434,7 @@
         <v>7.62</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U9" s="3">
         <v>1.1299999999999999</v>
@@ -1432,7 +1443,7 @@
         <v>0.44</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
@@ -1444,15 +1455,15 @@
         <v>52.413800000000002</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="B10" s="3">
         <v>10.95</v>
@@ -1503,13 +1514,13 @@
         <v>564</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U10" s="3">
         <v>1.57</v>
@@ -1518,7 +1529,7 @@
         <v>0.5</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
@@ -1530,15 +1541,15 @@
         <v>50.502299999999998</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="B11" s="3">
         <v>12.05</v>
@@ -1589,13 +1600,13 @@
         <v>483</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S11" s="3">
         <v>2012.3</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U11" s="3">
         <v>1.1000000000000001</v>
@@ -1604,7 +1615,7 @@
         <v>0.41</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X11" s="3">
         <v>0</v>
@@ -1616,15 +1627,15 @@
         <v>27.083300000000001</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="B12" s="3">
         <v>13.25</v>
@@ -1675,13 +1686,13 @@
         <v>731</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U12" s="3">
         <v>1.17</v>
@@ -1690,7 +1701,7 @@
         <v>0.47</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
@@ -1702,15 +1713,15 @@
         <v>31.439399999999999</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB12" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="B13" s="3">
         <v>26</v>
@@ -1767,7 +1778,7 @@
         <v>52.31</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U13" s="3">
         <v>1.25</v>
@@ -1776,7 +1787,7 @@
         <v>0.46</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X13" s="3">
         <v>3.03</v>
@@ -1788,15 +1799,15 @@
         <v>57.558100000000003</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB13" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="B14" s="3">
         <v>11.4</v>
@@ -1853,7 +1864,7 @@
         <v>12.95</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U14" s="3">
         <v>2.2999999999999998</v>
@@ -1862,7 +1873,7 @@
         <v>0.86</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1874,15 +1885,15 @@
         <v>140.0881</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB14" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="B15" s="3">
         <v>7.65</v>
@@ -1933,13 +1944,13 @@
         <v>1184</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U15" s="3">
         <v>1.29</v>
@@ -1948,7 +1959,7 @@
         <v>0.53</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1960,15 +1971,15 @@
         <v>90.026200000000003</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB15" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="B16" s="3">
         <v>14.5</v>
@@ -2019,13 +2030,13 @@
         <v>1228</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U16" s="3">
         <v>0.7</v>
@@ -2034,7 +2045,7 @@
         <v>0.27</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X16" s="3">
         <v>0</v>
@@ -2046,15 +2057,15 @@
         <v>103.71129999999999</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB16" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="B17" s="3">
         <v>15.3</v>
@@ -2111,7 +2122,7 @@
         <v>82.94</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U17" s="3">
         <v>1.03</v>
@@ -2120,7 +2131,7 @@
         <v>0.47</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X17" s="3">
         <v>0.79</v>
@@ -2132,15 +2143,15 @@
         <v>27.9605</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="B18" s="3">
         <v>15.5</v>
@@ -2191,13 +2202,13 @@
         <v>169</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U18" s="3">
         <v>1.03</v>
@@ -2206,7 +2217,7 @@
         <v>0.48</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X18" s="3">
         <v>0</v>
@@ -2218,15 +2229,15 @@
         <v>16.300899999999999</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB18" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="B19" s="3">
         <v>18.2</v>
@@ -2283,7 +2294,7 @@
         <v>36.380000000000003</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U19" s="3">
         <v>1.02</v>
@@ -2292,7 +2303,7 @@
         <v>0.53</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X19" s="3">
         <v>1.1299999999999999</v>
@@ -2304,15 +2315,15 @@
         <v>27.348099999999999</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB19" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="B20" s="3">
         <v>14.8</v>
@@ -2369,7 +2380,7 @@
         <v>13.65</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U20" s="3">
         <v>1.0900000000000001</v>
@@ -2378,7 +2389,7 @@
         <v>0.61</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X20" s="3">
         <v>0.51</v>
@@ -2390,15 +2401,15 @@
         <v>74.829899999999995</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB20" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="B21" s="3">
         <v>15.2</v>
@@ -2455,7 +2466,7 @@
         <v>51.92</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U21" s="3">
         <v>0.9</v>
@@ -2464,7 +2475,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X21" s="3">
         <v>0</v>
@@ -2476,17 +2487,18 @@
         <v>47.137999999999998</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AB21" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:AB21 A1:D1 F1:AB1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>